--- a/res.xlsx
+++ b/res.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,124 +508,124 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>toyrobot</t>
+          <t>aptamil</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.185733</v>
+        <v>0.374993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.477337</v>
+        <v>0.624597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.448276</v>
+        <v>0.753247</v>
       </c>
       <c r="E2" t="n">
-        <v>0.965517</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>16.890142</v>
+        <v>9.525634999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>15.98298</v>
+        <v>11.450882</v>
       </c>
       <c r="H2" t="n">
-        <v>0.610958</v>
+        <v>0.490422</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8054789999999999</v>
+        <v>0.736353</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.961039</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.987013</v>
       </c>
       <c r="L2" t="n">
-        <v>5.478074</v>
+        <v>7.928548</v>
       </c>
       <c r="M2" t="n">
-        <v>5.958297</v>
+        <v>8.082115999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0.982759</v>
+        <v>0.948052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>yellowduck</t>
+          <t>jzhg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.424764</v>
+        <v>0.314732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.677836</v>
+        <v>0.584457</v>
       </c>
       <c r="D3" t="n">
-        <v>0.820896</v>
+        <v>0.684932</v>
       </c>
       <c r="E3" t="n">
-        <v>0.985075</v>
+        <v>0.986301</v>
       </c>
       <c r="F3" t="n">
-        <v>7.55757</v>
+        <v>11.072232</v>
       </c>
       <c r="G3" t="n">
-        <v>9.881152</v>
+        <v>12.669882</v>
       </c>
       <c r="H3" t="n">
-        <v>0.622958</v>
+        <v>0.449494</v>
       </c>
       <c r="I3" t="n">
-        <v>0.811479</v>
+        <v>0.712472</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.917808</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>5.880081</v>
+        <v>8.458777</v>
       </c>
       <c r="M3" t="n">
-        <v>5.752305</v>
+        <v>8.790558000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.8630139999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sheep</t>
+          <t>minipuff</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.25207</v>
+        <v>0.164114</v>
       </c>
       <c r="C4" t="n">
-        <v>0.524722</v>
+        <v>0.420376</v>
       </c>
       <c r="D4" t="n">
-        <v>0.588235</v>
+        <v>0.341463</v>
       </c>
       <c r="E4" t="n">
-        <v>0.941176</v>
+        <v>0.95122</v>
       </c>
       <c r="F4" t="n">
-        <v>12.05613</v>
+        <v>18.575408</v>
       </c>
       <c r="G4" t="n">
-        <v>14.720541</v>
+        <v>17.780979</v>
       </c>
       <c r="H4" t="n">
-        <v>0.702356</v>
+        <v>0.476622</v>
       </c>
       <c r="I4" t="n">
-        <v>0.851178</v>
+        <v>0.7383110000000001</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -634,335 +634,381 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>4.107855</v>
+        <v>8.557</v>
       </c>
       <c r="M4" t="n">
-        <v>4.586839</v>
+        <v>8.030087</v>
       </c>
       <c r="N4" t="n">
-        <v>0.352941</v>
+        <v>0.95122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fakebanana</t>
+          <t>hlyormosiapie</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.276422</v>
+        <v>0.267221</v>
       </c>
       <c r="C5" t="n">
-        <v>0.591954</v>
+        <v>0.549503</v>
       </c>
       <c r="D5" t="n">
-        <v>0.723404</v>
+        <v>0.576271</v>
       </c>
       <c r="E5" t="n">
-        <v>0.978723</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>11.528078</v>
+        <v>13.180281</v>
       </c>
       <c r="G5" t="n">
-        <v>12.665321</v>
+        <v>13.757036</v>
       </c>
       <c r="H5" t="n">
-        <v>0.614499</v>
+        <v>0.304091</v>
       </c>
       <c r="I5" t="n">
-        <v>0.807249</v>
+        <v>0.645501</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.847458</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>5.23696</v>
+        <v>10.283973</v>
       </c>
       <c r="M5" t="n">
-        <v>5.913577</v>
+        <v>10.791879</v>
       </c>
       <c r="N5" t="n">
-        <v>0.978723</v>
+        <v>0.898305</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>teabox</t>
+          <t>brownhouse</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.319389</v>
+        <v>0.230322</v>
       </c>
       <c r="C6" t="n">
-        <v>0.630125</v>
+        <v>0.497601</v>
       </c>
       <c r="D6" t="n">
-        <v>0.742424</v>
+        <v>0.490909</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>10.020415</v>
+        <v>15.041913</v>
       </c>
       <c r="G6" t="n">
-        <v>11.265255</v>
+        <v>15.334447</v>
       </c>
       <c r="H6" t="n">
-        <v>0.573188</v>
+        <v>0.297425</v>
       </c>
       <c r="I6" t="n">
-        <v>0.786594</v>
+        <v>0.630869</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.763636</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>6.767148</v>
+        <v>11.845306</v>
       </c>
       <c r="M6" t="n">
-        <v>6.505081</v>
+        <v>11.285958</v>
       </c>
       <c r="N6" t="n">
-        <v>0.939394</v>
+        <v>0.763636</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>oreo</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.444655</v>
+        <v>0.348245</v>
       </c>
       <c r="C7" t="n">
-        <v>0.699786</v>
+        <v>0.602297</v>
       </c>
       <c r="D7" t="n">
-        <v>0.876712</v>
+        <v>0.636364</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.981818</v>
       </c>
       <c r="F7" t="n">
-        <v>7.54338</v>
+        <v>10.857509</v>
       </c>
       <c r="G7" t="n">
-        <v>9.178445999999999</v>
+        <v>12.237805</v>
       </c>
       <c r="H7" t="n">
-        <v>0.764768</v>
+        <v>0.359106</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8823839999999999</v>
+        <v>0.671673</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.836364</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.231604</v>
+        <v>9.761699</v>
       </c>
       <c r="M7" t="n">
-        <v>3.587383</v>
+        <v>10.020348</v>
       </c>
       <c r="N7" t="n">
-        <v>0.986301</v>
+        <v>0.909091</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>greenteapot</t>
+          <t>mfmilkcake</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.23155</v>
+        <v>0.28151</v>
       </c>
       <c r="C8" t="n">
-        <v>0.537488</v>
+        <v>0.573752</v>
       </c>
       <c r="D8" t="n">
-        <v>0.625</v>
+        <v>0.728814</v>
       </c>
       <c r="E8" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>12.886069</v>
+        <v>12.347572</v>
       </c>
       <c r="G8" t="n">
-        <v>14.349135</v>
+        <v>13.03895</v>
       </c>
       <c r="H8" t="n">
-        <v>0.581314</v>
+        <v>0.398404</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7906570000000001</v>
+        <v>0.696341</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.915254</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>6.53843</v>
+        <v>10.265559</v>
       </c>
       <c r="M8" t="n">
-        <v>6.435513</v>
+        <v>9.257201</v>
       </c>
       <c r="N8" t="n">
-        <v>0.925</v>
+        <v>0.813559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lecreusetcup</t>
+          <t>diycookies</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.260396</v>
+        <v>0.243398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.549695</v>
+        <v>0.51445</v>
       </c>
       <c r="D9" t="n">
-        <v>0.565217</v>
+        <v>0.514706</v>
       </c>
       <c r="E9" t="n">
-        <v>0.956522</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>10.919511</v>
+        <v>14.492179</v>
       </c>
       <c r="G9" t="n">
-        <v>14.037174</v>
+        <v>14.773804</v>
       </c>
       <c r="H9" t="n">
-        <v>0.54795</v>
+        <v>0.447257</v>
       </c>
       <c r="I9" t="n">
-        <v>0.77418</v>
+        <v>0.718628</v>
       </c>
       <c r="J9" t="n">
-        <v>0.978261</v>
+        <v>0.8823530000000001</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>6.431671</v>
+        <v>8.400575</v>
       </c>
       <c r="M9" t="n">
-        <v>6.940956</v>
+        <v>8.579630999999999</v>
       </c>
       <c r="N9" t="n">
-        <v>0.869565</v>
+        <v>0.808824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>insta</t>
+          <t>taipingcookies</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.180016</v>
+        <v>0.297811</v>
       </c>
       <c r="C10" t="n">
-        <v>0.429631</v>
+        <v>0.56497</v>
       </c>
       <c r="D10" t="n">
-        <v>0.46875</v>
+        <v>0.535714</v>
       </c>
       <c r="E10" t="n">
-        <v>0.90625</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>16.253045</v>
+        <v>14.001605</v>
       </c>
       <c r="G10" t="n">
-        <v>17.611445</v>
+        <v>13.310504</v>
       </c>
       <c r="H10" t="n">
-        <v>0.699352</v>
+        <v>0.547775</v>
       </c>
       <c r="I10" t="n">
-        <v>0.849676</v>
+        <v>0.773154</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0.964286</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.639323</v>
+        <v>5.465655</v>
       </c>
       <c r="M10" t="n">
-        <v>4.557372</v>
+        <v>6.951764</v>
       </c>
       <c r="N10" t="n">
-        <v>0.572917</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>tee</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.267509</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5538459999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.606742</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12.143085</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.547051</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.348749</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.666123</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.876404</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9.964964999999999</v>
+      </c>
+      <c r="M11" t="n">
+        <v>10.137167</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.730337</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Avg</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.28611</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.56873</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.650991</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.964807</v>
-      </c>
-      <c r="F11" t="n">
-        <v>11.739371</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13.299048</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.63526</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.817653</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9975850000000001</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5.367906</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5.581925</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.845289</v>
+      <c r="B12" t="n">
+        <v>0.278985</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.548585</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.586916</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.991934</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13.123743</v>
+      </c>
+      <c r="G12" t="n">
+        <v>13.790135</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.411935</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.698942</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.89646</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9987009999999999</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9.093204999999999</v>
+      </c>
+      <c r="M12" t="n">
+        <v>9.192671000000001</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.831104</v>
       </c>
     </row>
   </sheetData>

--- a/res.xlsx
+++ b/res.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:DT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,615 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>R:auc@ 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@ 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@ 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@ 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@ 5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@ 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@ 7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@ 8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@ 9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>R:auc@15</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@16</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@17</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@18</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@19</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@20</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@21</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@24</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@25</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@26</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@27</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@28</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>R:auc@29</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>R:auc@30</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC 1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC 2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC 3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC 4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC 5</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC 6</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC 7</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC 8</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC 9</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC10</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC11</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC12</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC13</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC14</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>R:ACC15</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC16</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC17</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC18</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC19</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC20</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC21</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC22</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC23</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC24</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC25</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC26</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC27</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC28</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>R:ACC29</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>R:ACC30</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>R:medianErr</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>R:meanErr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@ 1</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@ 2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@ 3</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@ 4</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@ 5</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@ 6</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@ 7</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@ 8</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@ 9</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@10</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@11</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@12</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@13</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@14</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>t:auc@15</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@16</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@17</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@18</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@19</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@20</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@21</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@22</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@23</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@24</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@25</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@26</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@27</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@28</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>t:auc@29</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>t:auc@30</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC 1</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC 2</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC 3</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC 4</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC 5</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC 6</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC 7</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC 8</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC 9</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC10</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC11</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC12</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC13</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC14</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>t:ACC15</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC16</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC17</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC18</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC19</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC20</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC21</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC22</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC23</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC24</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC25</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC26</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC27</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC28</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>t:ACC29</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>t:ACC30</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>t:medianErr</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>t:meanErr</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>AP50</t>
         </is>
@@ -508,461 +1058,3761 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aptamil</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.374993</v>
+        <v>0.017828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.624597</v>
+        <v>0.042772</v>
       </c>
       <c r="D2" t="n">
-        <v>0.753247</v>
+        <v>0.067818</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.087627</v>
       </c>
       <c r="F2" t="n">
-        <v>9.525634999999999</v>
+        <v>0.101375</v>
       </c>
       <c r="G2" t="n">
-        <v>11.450882</v>
+        <v>0.114593</v>
       </c>
       <c r="H2" t="n">
-        <v>0.490422</v>
+        <v>0.127046</v>
       </c>
       <c r="I2" t="n">
-        <v>0.736353</v>
+        <v>0.14107</v>
       </c>
       <c r="J2" t="n">
-        <v>0.961039</v>
+        <v>0.154159</v>
       </c>
       <c r="K2" t="n">
-        <v>0.987013</v>
+        <v>0.16736</v>
       </c>
       <c r="L2" t="n">
-        <v>7.928548</v>
+        <v>0.180317</v>
       </c>
       <c r="M2" t="n">
-        <v>8.082115999999999</v>
+        <v>0.193119</v>
       </c>
       <c r="N2" t="n">
-        <v>0.948052</v>
+        <v>0.206471</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.220089</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.233232</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.245313</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.256677</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.267524</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.277839</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.287785</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.297058</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.306253</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.315464</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.324763</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.334311</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.343612</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.352567</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.361138</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.369523</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.377816</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.032558</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.08837200000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.139535</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.148837</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.167442</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.190698</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.213953</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.246512</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.265116</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.302326</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.316279</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.344186</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.381395</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.404651</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.423256</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.427907</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.44186</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.455814</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.465116</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.47907</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.493023</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.5023260000000001</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.530233</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.553488</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.567442</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.581395</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.586047</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.609302</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.623256</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>21.742818</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.00345</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.006171</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.008899000000000001</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.013456</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.018144</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.023286</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.032104</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.041015</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.049877</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.059353</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.067911</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.075603</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.082549</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.08881799999999999</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.094552</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.100372</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.106203</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.111831</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.11758</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.123428</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.129266</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.135326</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.141641</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.148061</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.15421</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.160668</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.167501</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.174148</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.180619</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.186983</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.004651</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.009302</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.013953</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.032558</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.037209</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.060465</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.09302299999999999</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.111628</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.125581</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.153488</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.153488</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.15814</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.167442</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.172093</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.181395</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.195349</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.209302</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.223256</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.237209</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.255814</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.274419</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.288372</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.297674</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.302326</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.334884</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.348837</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.353488</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.362791</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.376744</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>39.62671</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.409302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jzhg</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.314732</v>
+        <v>0.046667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.584457</v>
+        <v>0.076044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.684932</v>
+        <v>0.111822</v>
       </c>
       <c r="E3" t="n">
-        <v>0.986301</v>
+        <v>0.148572</v>
       </c>
       <c r="F3" t="n">
-        <v>11.072232</v>
+        <v>0.177137</v>
       </c>
       <c r="G3" t="n">
-        <v>12.669882</v>
+        <v>0.199987</v>
       </c>
       <c r="H3" t="n">
-        <v>0.449494</v>
+        <v>0.217835</v>
       </c>
       <c r="I3" t="n">
-        <v>0.712472</v>
+        <v>0.234525</v>
       </c>
       <c r="J3" t="n">
-        <v>0.917808</v>
+        <v>0.250435</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.265449</v>
       </c>
       <c r="L3" t="n">
-        <v>8.458777</v>
+        <v>0.281386</v>
       </c>
       <c r="M3" t="n">
-        <v>8.790558000000001</v>
+        <v>0.299421</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8630139999999999</v>
+        <v>0.316005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.330902</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.344935</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.358311</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.37202</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.386767</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.402023</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.417664</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.433086</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.447725</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.462368</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.476817</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.490125</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.503111</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.515593</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.527224</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.538053</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.54892</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.079365</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.142857</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.214286</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.277778</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.309524</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.31746</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.333333</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.365079</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.380952</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.412698</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.47619</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.515873</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.52381</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.547619</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.571429</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.619048</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.642857</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.68254</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.722222</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.746032</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.753968</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.801587</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.809524</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.809524</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.825397</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.84127</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.84127</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.84127</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.865079</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>11.787284</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.004922</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.005927</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.01248</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.018971</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.026836</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.034207</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.041689</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.049304</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.056251</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.062497</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.068699</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.074907</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.08171399999999999</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.089337</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.096494</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.103974</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.11178</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.118846</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.125812</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.132278</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0.138431</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.14445</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.150364</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.156092</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.161929</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0.167689</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0.173367</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0.178855</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0.184004</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>0.007937</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.007937</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0.031746</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0.047619</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>0.07142900000000001</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0.087302</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0.103175</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.111111</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0.119048</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0.126984</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0.142857</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0.150794</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0.190476</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>0.198413</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0.206349</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0.238095</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>0.246032</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0.246032</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>0.253968</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.261905</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0.269841</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0.277778</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>0.285714</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0.293651</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.31746</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>0.31746</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.325397</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0.333333</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0.333333</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>57.07288</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0.579365</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>minipuff</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.164114</v>
+        <v>0.024763</v>
       </c>
       <c r="C4" t="n">
-        <v>0.420376</v>
+        <v>0.047106</v>
       </c>
       <c r="D4" t="n">
-        <v>0.341463</v>
+        <v>0.062095</v>
       </c>
       <c r="E4" t="n">
-        <v>0.95122</v>
+        <v>0.07527200000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>18.575408</v>
+        <v>0.088198</v>
       </c>
       <c r="G4" t="n">
-        <v>17.780979</v>
+        <v>0.100255</v>
       </c>
       <c r="H4" t="n">
-        <v>0.476622</v>
+        <v>0.112167</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7383110000000001</v>
+        <v>0.123945</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.135574</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.148209</v>
       </c>
       <c r="L4" t="n">
-        <v>8.557</v>
+        <v>0.160594</v>
       </c>
       <c r="M4" t="n">
-        <v>8.030087</v>
+        <v>0.173309</v>
       </c>
       <c r="N4" t="n">
-        <v>0.95122</v>
+        <v>0.186345</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.199261</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.21198</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.22546</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.239657</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.254397</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.269587</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.285057</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.300037</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.314154</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.328542</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.342953</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.357122</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.370951</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.384115</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.396612</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.408484</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.419908</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.052209</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.080321</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.104418</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.120482</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.15261</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.164659</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.196787</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.208835</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.24498</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.269076</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.297189</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.329317</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.353414</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.37751</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.405622</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.441767</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.481928</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.518072</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.562249</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.590361</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.606426</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.618474</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.662651</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.682731</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.706827</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0.718876</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0.726908</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.73494</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.742972</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.751004</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>17.434248</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.004378</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0.006205</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.01035</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>0.012783</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>0.015333</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0.016794</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0.018581</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.021028</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.024383</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0.028197</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0.032301</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0.036352</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.040473</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0.045682</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.051367</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0.057266</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.06361799999999999</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>0.07023500000000001</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.077207</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.084176</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.091075</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0.098344</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.105845</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.112981</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.119989</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0.127275</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.134404</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.141307</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.14779</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.154141</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0.008031999999999999</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0.008031999999999999</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0.02008</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0.02008</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0.024096</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0.024096</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.028112</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0.040161</v>
+      </c>
+      <c r="CW4" t="n">
+        <v>0.056225</v>
+      </c>
+      <c r="CX4" t="n">
+        <v>0.068273</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>0.076305</v>
+      </c>
+      <c r="CZ4" t="n">
+        <v>0.080321</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0.096386</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>0.124498</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0.136546</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0.15261</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0.172691</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>0.188755</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>0.212851</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>0.216867</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>0.232932</v>
+      </c>
+      <c r="DJ4" t="n">
+        <v>0.257028</v>
+      </c>
+      <c r="DK4" t="n">
+        <v>0.277108</v>
+      </c>
+      <c r="DL4" t="n">
+        <v>0.277108</v>
+      </c>
+      <c r="DM4" t="n">
+        <v>0.293173</v>
+      </c>
+      <c r="DN4" t="n">
+        <v>0.313253</v>
+      </c>
+      <c r="DO4" t="n">
+        <v>0.321285</v>
+      </c>
+      <c r="DP4" t="n">
+        <v>0.329317</v>
+      </c>
+      <c r="DQ4" t="n">
+        <v>0.329317</v>
+      </c>
+      <c r="DR4" t="n">
+        <v>0.341365</v>
+      </c>
+      <c r="DS4" t="n">
+        <v>42.087351</v>
+      </c>
+      <c r="DT4" t="n">
+        <v>0.313253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hlyormosiapie</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.267221</v>
+        <v>0.006226</v>
       </c>
       <c r="C5" t="n">
-        <v>0.549503</v>
+        <v>0.022432</v>
       </c>
       <c r="D5" t="n">
-        <v>0.576271</v>
+        <v>0.041653</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.06500400000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>13.180281</v>
+        <v>0.087369</v>
       </c>
       <c r="G5" t="n">
-        <v>13.757036</v>
+        <v>0.109478</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304091</v>
+        <v>0.129161</v>
       </c>
       <c r="I5" t="n">
-        <v>0.645501</v>
+        <v>0.148826</v>
       </c>
       <c r="J5" t="n">
-        <v>0.847458</v>
+        <v>0.167562</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.183944</v>
       </c>
       <c r="L5" t="n">
-        <v>10.283973</v>
+        <v>0.199201</v>
       </c>
       <c r="M5" t="n">
-        <v>10.791879</v>
+        <v>0.213471</v>
       </c>
       <c r="N5" t="n">
-        <v>0.898305</v>
+        <v>0.229161</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.244467</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.258509</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.271539</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.28459</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.297022</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.309235</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.32165</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.3337</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.345216</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.356406</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.367818</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.379184</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.390471</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.401199</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.411339</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.421657</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.431877</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.011429</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.051429</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.108571</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.148571</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.188571</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.234286</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.251429</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.302857</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.337143</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.377143</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.445714</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.457143</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.474286</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.502857</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.508571</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.548571</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.5657140000000001</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.582857</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.588571</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.617143</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.634286</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.662857</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0.6742860000000001</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.685714</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.731429</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>16.847572</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.003858</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0.008999</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.011714</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0.015494</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>0.01927</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>0.022582</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0.027138</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0.032238</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.037625</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.043191</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0.049015</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>0.054871</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.060396</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0.066193</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.07267</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0.078893</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.08517</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>0.09091399999999999</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.097029</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0.103193</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.109187</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0.115143</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0.121016</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0.126758</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.132815</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0.13912</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0.145354</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0.151763</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0.157964</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0.163933</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0.005714</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0.017143</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0.017143</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0.022857</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0.034286</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0.062857</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0.06857099999999999</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="CX5" t="n">
+        <v>0.09714299999999999</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0.114286</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0.125714</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0.142857</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0.165714</v>
+      </c>
+      <c r="DD5" t="n">
+        <v>0.171429</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>0.188571</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>0.188571</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>0.211429</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0.222857</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>0.228571</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>0.245714</v>
+      </c>
+      <c r="DK5" t="n">
+        <v>0.251429</v>
+      </c>
+      <c r="DL5" t="n">
+        <v>0.268571</v>
+      </c>
+      <c r="DM5" t="n">
+        <v>0.285714</v>
+      </c>
+      <c r="DN5" t="n">
+        <v>0.297143</v>
+      </c>
+      <c r="DO5" t="n">
+        <v>0.314286</v>
+      </c>
+      <c r="DP5" t="n">
+        <v>0.325714</v>
+      </c>
+      <c r="DQ5" t="n">
+        <v>0.331429</v>
+      </c>
+      <c r="DR5" t="n">
+        <v>0.337143</v>
+      </c>
+      <c r="DS5" t="n">
+        <v>43.909492</v>
+      </c>
+      <c r="DT5" t="n">
+        <v>0.291429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>brownhouse</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.230322</v>
+        <v>0.018262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.497601</v>
+        <v>0.053786</v>
       </c>
       <c r="D6" t="n">
-        <v>0.490909</v>
+        <v>0.082526</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.110308</v>
       </c>
       <c r="F6" t="n">
-        <v>15.041913</v>
+        <v>0.139362</v>
       </c>
       <c r="G6" t="n">
-        <v>15.334447</v>
+        <v>0.165724</v>
       </c>
       <c r="H6" t="n">
-        <v>0.297425</v>
+        <v>0.189301</v>
       </c>
       <c r="I6" t="n">
-        <v>0.630869</v>
+        <v>0.21324</v>
       </c>
       <c r="J6" t="n">
-        <v>0.763636</v>
+        <v>0.234448</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.255152</v>
       </c>
       <c r="L6" t="n">
-        <v>11.845306</v>
+        <v>0.273532</v>
       </c>
       <c r="M6" t="n">
-        <v>11.285958</v>
+        <v>0.290057</v>
       </c>
       <c r="N6" t="n">
-        <v>0.763636</v>
+        <v>0.304853</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.318002</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.330297</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.342262</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.354824</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.367064</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.379831</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.391825</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.403831</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.415961</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.428299</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.44075</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.453187</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.465858</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.47827</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.490168</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.501883</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.513027</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.035211</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.119718</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.161972</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.225352</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.267606</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.316901</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.352113</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.394366</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.422535</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.443662</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.471831</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.471831</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.478873</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.492958</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.507042</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.535211</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.56338</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.584507</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.619718</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.619718</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.647887</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.683099</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.704225</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.739437</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.760563</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>0.788732</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0.802817</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.816901</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.830986</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>0.838028</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>14.562494</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0.004091</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>0.004829</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>0.007241</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0.008381</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0.009195999999999999</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0.01148</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.013307</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.014793</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0.016911</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>0.019734</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.024695</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>0.02947</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.034283</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>0.038302</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.041849</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>0.045001</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.049389</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0.052906</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.056612</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0.060748</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.065095</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0.069131</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.07284499999999999</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0.07671799999999999</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0.080695</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0.085356</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0.090378</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0.095611</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0.007042</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0.007042</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0.014085</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0.014085</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0.014085</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0.021127</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0.028169</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0.028169</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0.035211</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0.06338000000000001</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0.09154900000000001</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>0.09154900000000001</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0.098592</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>0.098592</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>0.098592</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>0.098592</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>0.119718</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0.119718</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0.140845</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>0.147887</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>0.161972</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>0.161972</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0.161972</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>0.169014</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>0.204225</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>0.211268</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>0.232394</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>0.246479</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>63.02863</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>0.633803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>oreo</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.348245</v>
+        <v>0.009676000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.602297</v>
+        <v>0.031473</v>
       </c>
       <c r="D7" t="n">
-        <v>0.636364</v>
+        <v>0.045195</v>
       </c>
       <c r="E7" t="n">
-        <v>0.981818</v>
+        <v>0.058657</v>
       </c>
       <c r="F7" t="n">
-        <v>10.857509</v>
+        <v>0.071199</v>
       </c>
       <c r="G7" t="n">
-        <v>12.237805</v>
+        <v>0.083606</v>
       </c>
       <c r="H7" t="n">
-        <v>0.359106</v>
+        <v>0.09539599999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.671673</v>
+        <v>0.107146</v>
       </c>
       <c r="J7" t="n">
-        <v>0.836364</v>
+        <v>0.119232</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.132684</v>
       </c>
       <c r="L7" t="n">
-        <v>9.761699</v>
+        <v>0.147589</v>
       </c>
       <c r="M7" t="n">
-        <v>10.020348</v>
+        <v>0.161987</v>
       </c>
       <c r="N7" t="n">
-        <v>0.909091</v>
+        <v>0.174633</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.187097</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.199381</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.21067</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.221757</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.232115</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.24298</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.254173</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.265256</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.276254</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.286822</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.296861</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.306898</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.317052</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.327323</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.338066</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.348439</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.358505</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.034722</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.055556</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.076389</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.111111</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.152778</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.173611</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.194444</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.229167</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.284722</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.305556</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.326389</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.326389</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.361111</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.381944</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.402778</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.416667</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.451389</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.479167</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.506944</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.527778</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.527778</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.548611</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0.583333</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0.604167</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.638889</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.638889</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.652778</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>20.962021</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0.003593</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.00471</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0.005269</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0.008338</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0.010797</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0.013294</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.015927</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.01963</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0.024285</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0.029604</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0.0358</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.043122</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0.050089</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.056527</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0.062707</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.06882199999999999</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>0.074258</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.079989</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0.085017</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.09021999999999999</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0.095294</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.09990599999999999</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0.104668</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.109315</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0.113887</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0.118701</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0.123638</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0.128586</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0.133096</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0.006944</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0.006944</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0.006944</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0.013889</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0.020833</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0.027778</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0.034722</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>0.055556</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>0.06944400000000001</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0.090278</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0.111111</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0.131944</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0.138889</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0.145833</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>0.166667</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>0.166667</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>0.166667</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>0.180556</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0.180556</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>0.194444</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>0.201389</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>0.201389</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>0.208333</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>0.222222</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>0.229167</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>0.256944</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>0.256944</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>0.263889</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>0.263889</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>47.537735</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>0.340278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mfmilkcake</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.28151</v>
+        <v>0.158516</v>
       </c>
       <c r="C8" t="n">
-        <v>0.573752</v>
+        <v>0.325245</v>
       </c>
       <c r="D8" t="n">
-        <v>0.728814</v>
+        <v>0.425164</v>
       </c>
       <c r="E8" t="n">
+        <v>0.475123</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.505098</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.549131</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.568898</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5951880000000001</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.61239</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.638496</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.6599969999999999</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6843590000000001</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.703831</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.720522</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.7349869999999999</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.747644</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.758812</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.768739</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.777621</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.785615</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.807485</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.816236</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.824225</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.831549</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.838287</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.844507</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.850266</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.855614</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.8605930000000001</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.86524</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="n">
-        <v>12.347572</v>
-      </c>
-      <c r="G8" t="n">
-        <v>13.03895</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.398404</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.696341</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.915254</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="BA8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
-        <v>10.265559</v>
-      </c>
-      <c r="M8" t="n">
-        <v>9.257201</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.813559</v>
+      <c r="BB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1.670364</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.032915</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>0.03857</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.043119</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0.047213</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.050917</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0.054284</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.057359</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.060177</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.07230300000000001</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0.076734</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0.08083600000000001</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0.090174</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0.09784</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0.108398</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>33.746274</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>0.875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>diycookies</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.243398</v>
+        <v>0.021642</v>
       </c>
       <c r="C9" t="n">
-        <v>0.51445</v>
+        <v>0.062327</v>
       </c>
       <c r="D9" t="n">
-        <v>0.514706</v>
+        <v>0.106603</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.150884</v>
       </c>
       <c r="F9" t="n">
-        <v>14.492179</v>
+        <v>0.185274</v>
       </c>
       <c r="G9" t="n">
-        <v>14.773804</v>
+        <v>0.214626</v>
       </c>
       <c r="H9" t="n">
-        <v>0.447257</v>
+        <v>0.242371</v>
       </c>
       <c r="I9" t="n">
-        <v>0.718628</v>
+        <v>0.271079</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8823530000000001</v>
+        <v>0.300101</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.326951</v>
       </c>
       <c r="L9" t="n">
-        <v>8.400575</v>
+        <v>0.35073</v>
       </c>
       <c r="M9" t="n">
-        <v>8.579630999999999</v>
+        <v>0.372922</v>
       </c>
       <c r="N9" t="n">
-        <v>0.808824</v>
+        <v>0.394078</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.415687</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.43714</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.458558</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.48005</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.500105</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.519326</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.536818</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.553335</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.568115</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.582324</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.595496</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.608741</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.622223</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.63483</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.646537</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.657436</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.667609</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.06542100000000001</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.121495</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.261682</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.308411</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.336449</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.383178</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.429907</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.495327</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.5514019999999999</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.570093</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.598131</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.6261679999999999</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.654206</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.71028</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.757009</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.7850470000000001</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.831776</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.841121</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.869159</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.869159</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.878505</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.878505</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.88785</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.897196</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.934579</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.9626169999999999</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0.9626169999999999</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.9626169999999999</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.9626169999999999</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0.9626169999999999</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>8.056417</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0.03375</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0.06237</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0.08737200000000001</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0.113715</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0.138439</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0.161006</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.182789</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.203336</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.222392</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0.240225</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0.257217</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.273521</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.288736</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.303168</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0.315762</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.326874</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>0.337761</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.347353</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0.356154</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.364116</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0.372175</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.379626</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0.38716</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.394104</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0.400513</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0.406448</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0.413224</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.418956</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0.424305</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0.028037</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.149533</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.168224</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.242991</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0.271028</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.308411</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0.345794</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0.373832</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0.401869</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0.429907</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.457944</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0.476636</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0.485981</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0.504673</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>0.504673</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>0.504673</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>0.514019</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>0.5233640000000001</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0.5233640000000001</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>0.5233640000000001</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>0.53271</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>0.5514019999999999</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0.560748</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>0.560748</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0.560748</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>0.560748</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>0.579439</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0.579439</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0.579439</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>14.326641</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>0.485981</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>taipingcookies</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.297811</v>
+        <v>0.016343</v>
       </c>
       <c r="C10" t="n">
-        <v>0.56497</v>
+        <v>0.055449</v>
       </c>
       <c r="D10" t="n">
-        <v>0.535714</v>
+        <v>0.103593</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.139374</v>
       </c>
       <c r="F10" t="n">
-        <v>14.001605</v>
+        <v>0.166826</v>
       </c>
       <c r="G10" t="n">
-        <v>13.310504</v>
+        <v>0.188843</v>
       </c>
       <c r="H10" t="n">
-        <v>0.547775</v>
+        <v>0.20619</v>
       </c>
       <c r="I10" t="n">
-        <v>0.773154</v>
+        <v>0.220908</v>
       </c>
       <c r="J10" t="n">
-        <v>0.964286</v>
+        <v>0.235752</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.253236</v>
       </c>
       <c r="L10" t="n">
-        <v>5.465655</v>
+        <v>0.268814</v>
       </c>
       <c r="M10" t="n">
-        <v>6.951764</v>
+        <v>0.283167</v>
       </c>
       <c r="N10" t="n">
-        <v>0.625</v>
+        <v>0.297814</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.311776</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.325068</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.337638</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.349658</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.362108</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.374885</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.38685</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.398364</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.409239</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.419244</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.429713</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.440285</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.450918</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.461454</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.472157</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.482781</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.492944</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.02459</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.155738</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.221311</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.254098</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.286885</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.303279</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.311475</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.336066</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.385246</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.418033</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.42623</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.45082</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.483607</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.516393</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.532787</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.54918</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.590164</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.606557</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.614754</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.631148</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.639344</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.639344</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.680328</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.696721</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0.721311</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0.7377050000000001</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.770492</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.778689</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0.7868849999999999</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>14.14432</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0.010606</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0.019959</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0.026976</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0.037611</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0.048551</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0.056838</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0.065918</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0.07517600000000001</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0.086256</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0.097901</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0.108185</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.11797</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0.127108</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.135678</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0.143728</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.151185</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>0.159119</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.166275</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0.173266</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.179831</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0.186192</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.193098</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.206757</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0.213521</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0.220359</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0.227569</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0.234702</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0.242132</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0.02459</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0.040984</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0.04918</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0.098361</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0.106557</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0.106557</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0.131148</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0.163934</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0.196721</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0.221311</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0.221311</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0.245902</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>0.245902</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0.254098</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0.270492</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0.270492</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>0.295082</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0.295082</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0.303279</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0.311475</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>0.319672</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>0.352459</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>0.360656</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>0.368852</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>0.385246</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>0.409836</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>0.434426</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>0.434426</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0.459016</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>36.254083</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>0.393443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tee</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.267509</v>
+        <v>0.018708</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5538459999999999</v>
+        <v>0.061669</v>
       </c>
       <c r="D11" t="n">
-        <v>0.606742</v>
+        <v>0.09681099999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0.129142</v>
       </c>
       <c r="F11" t="n">
-        <v>12.143085</v>
+        <v>0.15663</v>
       </c>
       <c r="G11" t="n">
-        <v>13.547051</v>
+        <v>0.183666</v>
       </c>
       <c r="H11" t="n">
-        <v>0.348749</v>
+        <v>0.20504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.666123</v>
+        <v>0.222796</v>
       </c>
       <c r="J11" t="n">
-        <v>0.876404</v>
+        <v>0.23968</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.255635</v>
       </c>
       <c r="L11" t="n">
-        <v>9.964964999999999</v>
+        <v>0.269537</v>
       </c>
       <c r="M11" t="n">
-        <v>10.137167</v>
+        <v>0.282214</v>
       </c>
       <c r="N11" t="n">
-        <v>0.730337</v>
+        <v>0.293791</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.305234</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.316808</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.328036</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.339785</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.351907</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.363625</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.375535</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.387467</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.398715</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.409714</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.421137</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.433634</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.445802</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.457736</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.469636</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.480781</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.491532</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.135714</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.192857</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.242857</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.285714</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.328571</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.335714</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.392857</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.407143</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.421429</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.435714</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.471429</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.478571</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.507143</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.535714</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.564286</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.5785709999999999</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.614286</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.628571</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.635714</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.657143</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.707143</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0.771429</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.792857</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.792857</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>15.809002</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0.003722</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0.007071</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0.011371</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>0.016023</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0.022111</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0.027115</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0.033014</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0.039187</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>0.046017</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0.054319</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.062338</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.06966</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.076644</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.082963</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0.089478</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.09556000000000001</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>0.100965</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.10643</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0.111375</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.116428</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0.121525</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0.126865</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0.131974</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.13697</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0.142136</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0.147406</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0.152593</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0.15743</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0.161944</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0.007143</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0.014286</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0.028571</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0.035714</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>0.057143</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>0.057143</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>0.078571</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0.092857</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0.114286</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0.142857</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>0.157143</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>0.171429</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0.171429</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>0.192857</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0.192857</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>0.192857</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>0.207143</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>0.228571</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>0.228571</v>
+      </c>
+      <c r="DK11" t="n">
+        <v>0.242857</v>
+      </c>
+      <c r="DL11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="DM11" t="n">
+        <v>0.257143</v>
+      </c>
+      <c r="DN11" t="n">
+        <v>0.278571</v>
+      </c>
+      <c r="DO11" t="n">
+        <v>0.285714</v>
+      </c>
+      <c r="DP11" t="n">
+        <v>0.292857</v>
+      </c>
+      <c r="DQ11" t="n">
+        <v>0.292857</v>
+      </c>
+      <c r="DR11" t="n">
+        <v>0.292857</v>
+      </c>
+      <c r="DS11" t="n">
+        <v>51.288243</v>
+      </c>
+      <c r="DT11" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="12">
@@ -972,43 +4822,373 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.278985</v>
+        <v>0.033863</v>
       </c>
       <c r="C12" t="n">
-        <v>0.548585</v>
+        <v>0.07783</v>
       </c>
       <c r="D12" t="n">
-        <v>0.586916</v>
+        <v>0.114328</v>
       </c>
       <c r="E12" t="n">
-        <v>0.991934</v>
+        <v>0.143996</v>
       </c>
       <c r="F12" t="n">
-        <v>13.123743</v>
+        <v>0.167847</v>
       </c>
       <c r="G12" t="n">
-        <v>13.790135</v>
+        <v>0.190991</v>
       </c>
       <c r="H12" t="n">
-        <v>0.411935</v>
+        <v>0.209341</v>
       </c>
       <c r="I12" t="n">
-        <v>0.698942</v>
+        <v>0.227872</v>
       </c>
       <c r="J12" t="n">
-        <v>0.89646</v>
+        <v>0.244933</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9987009999999999</v>
+        <v>0.262712</v>
       </c>
       <c r="L12" t="n">
-        <v>9.093204999999999</v>
+        <v>0.27917</v>
       </c>
       <c r="M12" t="n">
-        <v>9.192671000000001</v>
+        <v>0.295403</v>
       </c>
       <c r="N12" t="n">
-        <v>0.831104</v>
+        <v>0.310698</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.325304</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.339234</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.352543</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.365783</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.378775</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.391695</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.404297</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.417962</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.429787</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.441341</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.452786</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.464178</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.475451</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.486335</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.496849</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.5069630000000001</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.516738</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.07605000000000001</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.15762</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.210602</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.24625</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.27448</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.307931</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.328582</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.364349</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.394226</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.431275</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.453355</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.478478</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.5006969999999999</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.522496</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.540516</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.5595020000000001</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.586602</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.6059560000000001</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.6321369999999999</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.649195</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.671445</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.6806950000000001</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.7027949999999999</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.723191</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.743713</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0.760595</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0.771296</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.784368</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.791758</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>0.801108</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>14.301654</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>0.002569</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>0.007797</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0.013509</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>0.019003</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>0.025465</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>0.031778</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0.037948</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>0.04451</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0.051182</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>0.058074</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0.065068</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0.07188</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.07872899999999999</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>0.08544499999999999</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.092055</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0.0983</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0.107617</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>0.114044</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.120322</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0.126254</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.131993</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0.137746</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0.14349</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0.149127</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.15554</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0.16125</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0.166939</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0.173314</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0.179312</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0.185455</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0.004643</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0.01652</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0.02779</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0.03672</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>0.054825</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0.066564</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0.078527</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0.09349</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>0.108727</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>0.124844</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0.139063</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>0.150506</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>0.164351</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>0.176367</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0.185669</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0.195902</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0.209514</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>0.222488</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>0.233729</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0.238996</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>0.250292</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>0.260223</v>
+      </c>
+      <c r="DK12" t="n">
+        <v>0.272977</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>0.279578</v>
+      </c>
+      <c r="DM12" t="n">
+        <v>0.29333</v>
+      </c>
+      <c r="DN12" t="n">
+        <v>0.307299</v>
+      </c>
+      <c r="DO12" t="n">
+        <v>0.320684</v>
+      </c>
+      <c r="DP12" t="n">
+        <v>0.342135</v>
+      </c>
+      <c r="DQ12" t="n">
+        <v>0.347238</v>
+      </c>
+      <c r="DR12" t="n">
+        <v>0.360527</v>
+      </c>
+      <c r="DS12" t="n">
+        <v>42.887806</v>
+      </c>
+      <c r="DT12" t="n">
+        <v>0.487185</v>
       </c>
     </row>
   </sheetData>
